--- a/SplitBelt Studies.xlsx
+++ b/SplitBelt Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33ab2cc4ec646a75/Documents/GitHub/Treadmill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D53368-C933-4C8C-9CC6-82E29FF24AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{88D53368-C933-4C8C-9CC6-82E29FF24AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C6DADBC-3D24-468D-A49D-FB98C42FD3C8}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,7 +651,7 @@
       <name val="&quot;Arial&quot;"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +676,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -689,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -939,8 +948,8 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1140,7 +1149,7 @@
       <c r="M5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="1"/>
@@ -1274,7 +1283,7 @@
       <c r="M8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="11" t="s">
         <v>71</v>
       </c>
       <c r="O8" s="1"/>
@@ -1646,7 +1655,7 @@
       <c r="M17" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="11" t="s">
         <v>153</v>
       </c>
       <c r="O17" s="1"/>
@@ -1720,7 +1729,7 @@
       <c r="M19" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="11" t="s">
         <v>167</v>
       </c>
       <c r="O19" s="1"/>
